--- a/medicine/Enfance/Bernard_Epin/Bernard_Epin.xlsx
+++ b/medicine/Enfance/Bernard_Epin/Bernard_Epin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Epin, né le 27 mai 1936 à Paris et mort le 1er avril 2020 à Paris[1], est un écrivain, critique littéraire et militant communiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Epin, né le 27 mai 1936 à Paris et mort le 1er avril 2020 à Paris, est un écrivain, critique littéraire et militant communiste français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans une famille ouvrière, nommé instituteur dans le XIVe arrondissement de Paris, il adhère au Parti communiste en 1954 et entre en 1957 au collectif de rédaction de la revue L'École et la Nation, revue communiste consacrée aux questions pédagogiques. Après son service militaire effectué en Algérie (1959-1961), il en devient secrétaire de rédaction. À la fin des années 1960, il prend la suite de Natha Caputo pour s'occuper des chroniques de « livres pour enfants » au sein de la revue[2],[3]. 
-Il collabore également à l'hebdomadaire Révolution, au mensuel Regards et enfin à L'Humanité à partir de 1999[4]. 
-Outre ses critiques en littérature de jeunesse, il écrit une dizaine d'essais, dont Les livres de vos enfants, parlons-en (1985), qui défendent l'idée de l'émancipation par l'éducation et la nécessité de démocratiser la lecture[4]. 
-Il a élu à la mairie de Saint-Ouen de 1965 à 2001, chargé des affaires culturelles de 1971 à 1995[4].
-Il avait été testé positif au SARS-CoV-2, il est mort des suites de la maladie à coronavirus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans une famille ouvrière, nommé instituteur dans le XIVe arrondissement de Paris, il adhère au Parti communiste en 1954 et entre en 1957 au collectif de rédaction de la revue L'École et la Nation, revue communiste consacrée aux questions pédagogiques. Après son service militaire effectué en Algérie (1959-1961), il en devient secrétaire de rédaction. À la fin des années 1960, il prend la suite de Natha Caputo pour s'occuper des chroniques de « livres pour enfants » au sein de la revue,. 
+Il collabore également à l'hebdomadaire Révolution, au mensuel Regards et enfin à L'Humanité à partir de 1999. 
+Outre ses critiques en littérature de jeunesse, il écrit une dizaine d'essais, dont Les livres de vos enfants, parlons-en (1985), qui défendent l'idée de l'émancipation par l'éducation et la nécessité de démocratiser la lecture. 
+Il a élu à la mairie de Saint-Ouen de 1965 à 2001, chargé des affaires culturelles de 1971 à 1995.
+Il avait été testé positif au SARS-CoV-2, il est mort des suites de la maladie à coronavirus.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Découvrir la littérature d'aujourd'hui pour les jeunes, textes choisis et présentés par Bernard Epin, Éditions Seghers, 1976
 Profession chanteur, Max Rongier et Bernard Epin, Éditions La Farandole, 1977
